--- a/com.bizvisionsoft.pms/todo.xlsx
+++ b/com.bizvisionsoft.pms/todo.xlsx
@@ -1056,10 +1056,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J91" totalsRowShown="0">
   <autoFilter ref="A1:J91">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="测试"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:J91">
@@ -1370,7 +1370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E6" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1428,7 +1428,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>162</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>195</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>200</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>201</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>203</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>205</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>276</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>278</v>
       </c>
